--- a/database/industries/kaghaz/chekapa/income/yearly/rial.xlsx
+++ b/database/industries/kaghaz/chekapa/income/yearly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D241A-77DF-4706-BF39-9CD65967DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -51,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/08</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1397-11-02 (9)</t>
-  </si>
-  <si>
     <t>1398-12-14 (9)</t>
   </si>
   <si>
@@ -66,7 +64,10 @@
     <t>1400-12-09 (9)</t>
   </si>
   <si>
-    <t>1401-06-30 (7)</t>
+    <t>1401-11-24 (8)</t>
+  </si>
+  <si>
+    <t>1401-11-24</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -692,19 +727,19 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1550992</v>
+        <v>3117641</v>
       </c>
       <c r="E11" s="13">
-        <v>3117641</v>
+        <v>4151648</v>
       </c>
       <c r="F11" s="13">
-        <v>4151648</v>
+        <v>5209685</v>
       </c>
       <c r="G11" s="13">
-        <v>5209685</v>
+        <v>10408824</v>
       </c>
       <c r="H11" s="13">
-        <v>10408824</v>
+        <v>14266243</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -713,19 +748,19 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-1028654</v>
+        <v>-1873533</v>
       </c>
       <c r="E12" s="11">
-        <v>-1873533</v>
+        <v>-2428930</v>
       </c>
       <c r="F12" s="11">
-        <v>-2428930</v>
+        <v>-3350233</v>
       </c>
       <c r="G12" s="11">
-        <v>-3350233</v>
+        <v>-7524301</v>
       </c>
       <c r="H12" s="11">
-        <v>-7524301</v>
+        <v>-10590781</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -734,19 +769,19 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>522338</v>
+        <v>1244108</v>
       </c>
       <c r="E13" s="15">
-        <v>1244108</v>
+        <v>1722718</v>
       </c>
       <c r="F13" s="15">
-        <v>1722718</v>
+        <v>1859452</v>
       </c>
       <c r="G13" s="15">
-        <v>1859452</v>
+        <v>2884523</v>
       </c>
       <c r="H13" s="15">
-        <v>2884523</v>
+        <v>3675462</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -755,19 +790,19 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-24316</v>
+        <v>-34024</v>
       </c>
       <c r="E14" s="11">
-        <v>-34024</v>
+        <v>-49820</v>
       </c>
       <c r="F14" s="11">
-        <v>-49820</v>
+        <v>-120107</v>
       </c>
       <c r="G14" s="11">
-        <v>-120107</v>
+        <v>-276573</v>
       </c>
       <c r="H14" s="11">
-        <v>-276573</v>
+        <v>-322707</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -778,8 +813,8 @@
       <c r="D15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>21</v>
+      <c r="E15" s="13">
+        <v>0</v>
       </c>
       <c r="F15" s="13">
         <v>0</v>
@@ -797,19 +832,19 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>34210</v>
+        <v>19259</v>
       </c>
       <c r="E16" s="11">
-        <v>19259</v>
+        <v>87564</v>
       </c>
       <c r="F16" s="11">
-        <v>87564</v>
+        <v>26832</v>
       </c>
       <c r="G16" s="11">
-        <v>26832</v>
+        <v>-30045</v>
       </c>
       <c r="H16" s="11">
-        <v>-30045</v>
+        <v>39809</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -818,19 +853,19 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>532232</v>
+        <v>1229343</v>
       </c>
       <c r="E17" s="15">
-        <v>1229343</v>
+        <v>1760462</v>
       </c>
       <c r="F17" s="15">
-        <v>1760462</v>
+        <v>1766177</v>
       </c>
       <c r="G17" s="15">
-        <v>1766177</v>
+        <v>2577905</v>
       </c>
       <c r="H17" s="15">
-        <v>2577905</v>
+        <v>3392564</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -839,19 +874,19 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-61987</v>
+        <v>-60467</v>
       </c>
       <c r="E18" s="11">
-        <v>-60467</v>
+        <v>-121315</v>
       </c>
       <c r="F18" s="11">
-        <v>-121315</v>
+        <v>-332949</v>
       </c>
       <c r="G18" s="11">
-        <v>-332949</v>
+        <v>-515122</v>
       </c>
       <c r="H18" s="11">
-        <v>-515122</v>
+        <v>-654109</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -860,19 +895,19 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>98385</v>
+        <v>110102</v>
       </c>
       <c r="E19" s="13">
-        <v>110102</v>
+        <v>148021</v>
       </c>
       <c r="F19" s="13">
-        <v>148021</v>
+        <v>47884</v>
       </c>
       <c r="G19" s="13">
-        <v>47884</v>
+        <v>454609</v>
       </c>
       <c r="H19" s="13">
-        <v>454609</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -881,19 +916,19 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>568630</v>
+        <v>1278978</v>
       </c>
       <c r="E20" s="17">
-        <v>1278978</v>
+        <v>1787168</v>
       </c>
       <c r="F20" s="17">
-        <v>1787168</v>
+        <v>1481112</v>
       </c>
       <c r="G20" s="17">
-        <v>1481112</v>
+        <v>2517392</v>
       </c>
       <c r="H20" s="17">
-        <v>2517392</v>
+        <v>2781443</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -902,16 +937,16 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-106767</v>
+        <v>-137847</v>
       </c>
       <c r="E21" s="13">
-        <v>-137847</v>
+        <v>-290111</v>
       </c>
       <c r="F21" s="13">
-        <v>-290111</v>
+        <v>-282112</v>
       </c>
       <c r="G21" s="13">
-        <v>-282112</v>
+        <v>0</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -923,19 +958,19 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>461863</v>
+        <v>1141131</v>
       </c>
       <c r="E22" s="17">
-        <v>1141131</v>
+        <v>1497057</v>
       </c>
       <c r="F22" s="17">
-        <v>1497057</v>
+        <v>1199000</v>
       </c>
       <c r="G22" s="17">
-        <v>1199000</v>
+        <v>2517392</v>
       </c>
       <c r="H22" s="17">
-        <v>2517392</v>
+        <v>2781443</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -965,19 +1000,19 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>461863</v>
+        <v>1141131</v>
       </c>
       <c r="E24" s="17">
-        <v>1141131</v>
+        <v>1497057</v>
       </c>
       <c r="F24" s="17">
-        <v>1497057</v>
+        <v>1199000</v>
       </c>
       <c r="G24" s="17">
-        <v>1199000</v>
+        <v>2517392</v>
       </c>
       <c r="H24" s="17">
-        <v>2517392</v>
+        <v>2781443</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -986,19 +1021,19 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>351</v>
+        <v>484</v>
       </c>
       <c r="E25" s="13">
-        <v>484</v>
+        <v>160</v>
       </c>
       <c r="F25" s="13">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="G25" s="13">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="H25" s="13">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1007,10 +1042,10 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>1315596</v>
+        <v>2355596</v>
       </c>
       <c r="E26" s="11">
-        <v>2355596</v>
+        <v>9358065</v>
       </c>
       <c r="F26" s="11">
         <v>9358065</v>
@@ -1028,19 +1063,19 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="E27" s="13">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="F27" s="13">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="G27" s="13">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="H27" s="13">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
